--- a/src/test/java/OptionOrders/Data/OptionOrderData.xlsx
+++ b/src/test/java/OptionOrders/Data/OptionOrderData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APIAutomation\Automation_OMSAPI\src\test\java\OptionOrders\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383C1AF8-3045-461E-A1C8-30CDD0FC0237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6637565-718D-4149-AC37-AF3C61BD2D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="506" firstSheet="2" activeTab="4" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="503" firstSheet="6" activeTab="9" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="OptionOrderSubscription" sheetId="14" r:id="rId1"/>
@@ -19,13 +19,17 @@
     <sheet name="UpdateNegativeOrders" sheetId="17" r:id="rId4"/>
     <sheet name="CancelOrders" sheetId="3" r:id="rId5"/>
     <sheet name="DeleteOrders" sheetId="10" r:id="rId6"/>
-    <sheet name="CreateBUYFilledOrder" sheetId="5" r:id="rId7"/>
-    <sheet name="CreateSELLFilledOrder" sheetId="13" r:id="rId8"/>
-    <sheet name="CreateRejectedOrder" sheetId="6" r:id="rId9"/>
-    <sheet name="CreateBUYFilledOrder (2)" sheetId="15" r:id="rId10"/>
-    <sheet name="CreateActiveOpenOrder dumm" sheetId="9" r:id="rId11"/>
-    <sheet name="Backup_CreateFilledOrder" sheetId="12" r:id="rId12"/>
-    <sheet name="PendingCancelOrders" sheetId="11" r:id="rId13"/>
+    <sheet name="OptionOrderExecution" sheetId="18" r:id="rId7"/>
+    <sheet name="OptionOrderPosition" sheetId="19" r:id="rId8"/>
+    <sheet name="UnSubscribeOptionOrder" sheetId="20" r:id="rId9"/>
+    <sheet name="UnSubscribe_Option_Positions" sheetId="21" r:id="rId10"/>
+    <sheet name="CreateBUYFilledOrder" sheetId="5" r:id="rId11"/>
+    <sheet name="CreateSELLFilledOrder" sheetId="13" r:id="rId12"/>
+    <sheet name="CreateRejectedOrder" sheetId="6" r:id="rId13"/>
+    <sheet name="CreateBUYFilledOrder (2)" sheetId="15" r:id="rId14"/>
+    <sheet name="CreateActiveOpenOrder dumm" sheetId="9" r:id="rId15"/>
+    <sheet name="Backup_CreateFilledOrder" sheetId="12" r:id="rId16"/>
+    <sheet name="PendingCancelOrders" sheetId="11" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="517">
   <si>
     <t>Content_Type</t>
   </si>
@@ -3427,12 +3431,404 @@
     "OptionOrderText" : "TestCase_VTRAD-C1275"
     }</t>
   </si>
+  <si>
+    <t>OptionOrder_Executions_TestCase</t>
+  </si>
+  <si>
+    <t>Subscribe_Executions_BasePath</t>
+  </si>
+  <si>
+    <t>Subscribe_Executions_StatusCode</t>
+  </si>
+  <si>
+    <t>Fetch_Executions_SideDesc</t>
+  </si>
+  <si>
+    <t>Fetch_Executions_Side</t>
+  </si>
+  <si>
+    <t>Fetch_Executions_Symbol</t>
+  </si>
+  <si>
+    <t>Fetch_Executions_Account</t>
+  </si>
+  <si>
+    <t>Fetch_Executions_OrderQty</t>
+  </si>
+  <si>
+    <t>Fetch_Executions_Price</t>
+  </si>
+  <si>
+    <t>Fetch_Executions_OrderType</t>
+  </si>
+  <si>
+    <t>Fetch_Executions_Destination</t>
+  </si>
+  <si>
+    <t>Fetch_Executions_SymbolSfx</t>
+  </si>
+  <si>
+    <t>Fetch_Executions_Status</t>
+  </si>
+  <si>
+    <t>Fetch_Executions_Text</t>
+  </si>
+  <si>
+    <t>Fetch_Executions_OrdStatus</t>
+  </si>
+  <si>
+    <t>Fetch_Last_Executions_OrdStatus</t>
+  </si>
+  <si>
+    <t>Fetch_Executions_OriginatingUserDesc</t>
+  </si>
+  <si>
+    <t>Fetch_Executions_ExecBroker</t>
+  </si>
+  <si>
+    <t>Fetch_Executions_TimeInForce</t>
+  </si>
+  <si>
+    <t>Fetch_Executions_ExecRefID</t>
+  </si>
+  <si>
+    <t>Fetch_Executions_ExecTransType</t>
+  </si>
+  <si>
+    <t>Fetch_Executions_ExecTransTypeDesc</t>
+  </si>
+  <si>
+    <t>/int/ord/api/v3/subscription/executions/subscribe</t>
+  </si>
+  <si>
+    <t>Bought</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Verify_OptionOrder_Executions_TestCase_VTRAD-C1034</t>
+  </si>
+  <si>
+    <t>{
+        "OrdType": "1",
+        "Side": "1",
+        "Symbol": "BRK.B",
+        "TimeInForce": "0",
+        "Account": "AutoAccount",
+        "destination": "-OPTFIX",
+        "OrderQty": 120,
+        "Price": 0,
+        "StopPx": 0,
+        "ComplianceID": null,
+        "ContactName": null,
+        "LocateID": null,
+        "LocateRate": 0,
+        "LocateRequired": false,
+        "StrikePrice": 90,
+        "PutOrCall": "0",
+        "CoveredOrUncovered": "0",
+        "CustomerOrFirm": "0",
+        "ExpiryDate": "2099-08-30T13:20:00.000Z",
+        "Cmta": "294",
+        "OpenClose": "O",
+    "OptionOrderText" : "TestCase_VTRAD-C1034"
+    }</t>
+  </si>
+  <si>
+    <t>OPTFIX</t>
+  </si>
+  <si>
+    <t>Verify_OptionOrder_Executions_TestCase_VTRAD-C1337</t>
+  </si>
+  <si>
+    <t>{
+        "OrdType": "1",
+        "Side": "2",
+        "Symbol": "BRK.B",
+        "TimeInForce": "0",
+        "Account": "AutoAccount",
+        "destination": "-OPTFIX",
+        "OrderQty": 120,
+        "Price": 0,
+        "StopPx": 0,
+        "ComplianceID": null,
+        "ContactName": null,
+        "LocateID": null,
+        "LocateRate": 0,
+        "LocateRequired": false,
+        "StrikePrice": 90,
+        "PutOrCall": "0",
+        "CoveredOrUncovered": "0",
+        "CustomerOrFirm": "0",
+        "ExpiryDate": "2099-08-30T13:20:00.000Z",
+        "Cmta": "294",
+        "OpenClose": "O",
+    "OptionOrderText" : "TestCase_VTRAD-C1337"
+    }</t>
+  </si>
+  <si>
+    <t>TestCase_VTRAD-C1337</t>
+  </si>
+  <si>
+    <t>Sold</t>
+  </si>
+  <si>
+    <t>Validate_Position_comment_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_currency_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_exchangeName_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_exchangeID_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_rule80A_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_positionOperation_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_positionSide_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_parentOrdPrice_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_parentOrdQty_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_clientID_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_boothID_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_symbolWithoutSfx_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_optionSymbol_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_optionsFields_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_OptionDesc</t>
+  </si>
+  <si>
+    <t>Validate_Position_maturityDay_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_maturityMonthYear_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_maturityMonthYearDesc_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_maturityDate_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_strikePrice_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_putOrCallInt_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_putOrCall_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_coveredOrUncoveredInt_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_coveredOrUncovered_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_customerOrFirmInt_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_customerOrFirm_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_openCloseBoxed_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_openClose_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_cmta_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_expiryDate_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_symbol_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_positionString_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_symbolSfx_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_originatingUserDesc_Value</t>
+  </si>
+  <si>
+    <t>Validate_Position_account_Value</t>
+  </si>
+  <si>
+    <t>BRK.B Aug 30, 2099 70.00 PUT</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>Subscribe_Option_Positions_BasePath</t>
+  </si>
+  <si>
+    <t>Subscribe_Option_Positions_StatusCode</t>
+  </si>
+  <si>
+    <t>Position_ID</t>
+  </si>
+  <si>
+    <t>/int/ord/api/v3/subscription/optionpositions/subscribe</t>
+  </si>
+  <si>
+    <t>OptionOrder_Positions_TestCase</t>
+  </si>
+  <si>
+    <t>Verify_OptionOrder_Positions_TestCase_VTRAD-C1035</t>
+  </si>
+  <si>
+    <t>{
+        "OrdType": "2",
+        "Side": "1",
+        "Symbol": "BRK.B",
+        "TimeInForce": "0",
+        "Account": "AutoAccount",
+        "destination": "-OPTFIX",
+        "OrderQty": 10,
+        "Price": 45,
+        "StopPx":0,
+        "ComplianceID": null,
+        "ContactName": null,
+        "LocateID": null,
+        "LocateRate": 0,
+        "LocateRequired": false,
+        "StrikePrice": 70,
+        "PutOrCall": "0",
+        "CoveredOrUncovered": "0",
+        "CustomerOrFirm": "0",
+        "ExpiryDate": "2099-08-30T13:20:00.000Z",
+        "Cmta": "294",
+        "OpenClose": "O",
+    "OptionOrderText" : "TestCase_VTRAD-C1035"
+    }</t>
+  </si>
+  <si>
+    <t>TestCase_VTRAD-C1035</t>
+  </si>
+  <si>
+    <t>LSL-BRK.B Aug 30, 2099 70.00 PUT-AutoAccount</t>
+  </si>
+  <si>
+    <t>Verify_OptionOrder_Positions_TestCase_VTRAD-C1338</t>
+  </si>
+  <si>
+    <t>{
+        "OrdType": "2",
+        "Side": "2",
+        "Symbol": "BRK.B",
+        "TimeInForce": "0",
+        "Account": "AutoAccount",
+        "destination": "-OPTFIX",
+        "OrderQty": 10,
+        "Price": 45,
+        "StopPx":0,
+        "ComplianceID": null,
+        "ContactName": null,
+        "LocateID": null,
+        "LocateRate": 0,
+        "LocateRequired": false,
+        "StrikePrice": 75,
+        "PutOrCall": "0",
+        "CoveredOrUncovered": "0",
+        "CustomerOrFirm": "0",
+        "ExpiryDate": "2099-08-30T13:20:00.000Z",
+        "Cmta": "294",
+        "OpenClose": "O",
+    "OptionOrderText" : "TestCase_VTRAD-C1338"
+    }</t>
+  </si>
+  <si>
+    <t>TestCase_VTRAD-C1338</t>
+  </si>
+  <si>
+    <t>LSL-BRK.B Aug 30, 2099 75.00 PUT-AutoAccount</t>
+  </si>
+  <si>
+    <t>BRK.B Aug 30, 2099 75.00 PUT</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>SHORT</t>
+  </si>
+  <si>
+    <t>OptionOrder_UnSubscribe_TestCases</t>
+  </si>
+  <si>
+    <t>UnSubscribe_EquityOrder_BasePath</t>
+  </si>
+  <si>
+    <t>UnSubscribe_EquityOrder_StatusCode</t>
+  </si>
+  <si>
+    <t>UnSubscribe_Validation_Message</t>
+  </si>
+  <si>
+    <t>OptionOrder_UnSubscribe_TC0001</t>
+  </si>
+  <si>
+    <t>/int/ord/api/v3/subscription/optionorders/unsubscribe</t>
+  </si>
+  <si>
+    <t>Success!</t>
+  </si>
+  <si>
+    <t>TestCases</t>
+  </si>
+  <si>
+    <t>UnSubscribe_Order_Positions_BasePath</t>
+  </si>
+  <si>
+    <t>UnSubscribe_Order_Positions_StatusCode</t>
+  </si>
+  <si>
+    <t>UnSubscribe_OptionOrder_Positions_TC0001</t>
+  </si>
+  <si>
+    <t>/int/ord/api/v3/subscription/optionpositions/unsubscribe</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3482,6 +3878,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3497,7 +3906,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3520,11 +3929,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -3555,23 +3975,31 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3888,234 +4316,233 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A74F1729-9058-4D1C-8D37-C8E2B88F2E50}">
   <dimension ref="A1:BA18"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.7109375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="17" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="33" style="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="35.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="39.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29" style="18" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="38" style="18" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="34.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="32" style="18" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="45.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="43" style="18" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="40.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="38.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="38.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="33" style="18" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="27" style="19" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="35.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="29.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="34.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="29.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="32.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="40.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="37" style="18" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="28.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="30.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="35.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="32.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="30.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="35.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="37.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="33" style="18" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="30.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="37.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="54" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="69.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="33" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="38" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="32" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="43" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="33" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="27" style="14" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="37" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="33" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="37.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AA1" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AB1" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AC1" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AD1" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AE1" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AF1" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AG1" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="AH1" s="15" t="s">
+      <c r="AH1" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="AI1" s="15" t="s">
+      <c r="AI1" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="AJ1" s="17" t="s">
+      <c r="AJ1" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="AK1" s="15" t="s">
+      <c r="AK1" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AL1" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="AM1" s="15" t="s">
+      <c r="AM1" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="AN1" s="15" t="s">
+      <c r="AN1" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AO1" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="AP1" s="15" t="s">
+      <c r="AP1" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AQ1" s="15" t="s">
+      <c r="AQ1" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="AR1" s="15" t="s">
+      <c r="AR1" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="AS1" s="15" t="s">
+      <c r="AS1" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="AT1" s="15" t="s">
+      <c r="AT1" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="AU1" s="15" t="s">
+      <c r="AU1" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="AV1" s="15" t="s">
+      <c r="AV1" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="AW1" s="15" t="s">
+      <c r="AW1" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="AX1" s="15" t="s">
+      <c r="AX1" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="AY1" s="15" t="s">
+      <c r="AY1" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="AZ1" s="15" t="s">
+      <c r="AZ1" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="BA1" s="15" t="s">
+      <c r="BA1" s="22" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:53" ht="360" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="25" t="s">
         <v>128</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -4124,7 +4551,7 @@
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="3" t="s">
         <v>213</v>
       </c>
       <c r="F2" s="4">
@@ -4273,10 +4700,10 @@
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="25" t="s">
         <v>128</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -4434,10 +4861,10 @@
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="25" t="s">
         <v>128</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -4595,10 +5022,10 @@
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="25" t="s">
         <v>128</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -4756,10 +5183,10 @@
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="25" t="s">
         <v>128</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -4917,10 +5344,10 @@
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="25" t="s">
         <v>128</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -5078,10 +5505,10 @@
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="25" t="s">
         <v>128</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -5239,10 +5666,10 @@
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>128</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -5400,10 +5827,10 @@
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="25" t="s">
         <v>128</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -5561,10 +5988,10 @@
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="25" t="s">
         <v>128</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -5722,10 +6149,10 @@
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="25" t="s">
         <v>128</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -5883,10 +6310,10 @@
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="25" t="s">
         <v>128</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -6044,10 +6471,10 @@
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="25" t="s">
         <v>128</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -6200,15 +6627,15 @@
       <c r="AZ14" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="BA14" s="20" t="s">
+      <c r="BA14" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="25" t="s">
         <v>128</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -6366,10 +6793,10 @@
       </c>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="25" t="s">
         <v>128</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -6522,15 +6949,15 @@
       <c r="AZ16" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="BA16" s="20" t="s">
+      <c r="BA16" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="25" t="s">
         <v>128</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -6688,10 +7115,10 @@
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="25" t="s">
         <v>128</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -6844,7 +7271,7 @@
       <c r="AZ18" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="BA18" s="20" t="s">
+      <c r="BA18" s="15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6856,6 +7283,289 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C4FF73-FEE9-4DDB-A3CB-4BC395236A3A}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>200</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F680C5-3302-4988-BCBC-40F5FF94CC6C}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="54.28515625" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="345" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="4">
+        <v>200</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62873B6-CE53-407F-9102-217CEA8E4B49}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="6" width="45.85546875" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="345" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="4">
+        <v>200</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE410D00-CD99-4911-BAFD-98D2F3BC35BA}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="53.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="116.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="345" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="4">
+        <v>200</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3497FDA-7A91-4E57-B351-1B9CB7B94728}">
   <dimension ref="A1:S10"/>
   <sheetViews>
@@ -7481,7 +8191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89DEB9F-6E91-4CDD-86B4-0D114955D553}">
   <dimension ref="A1:S11"/>
   <sheetViews>
@@ -8167,7 +8877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4A5916-CF63-4BBD-BC6A-54F5F0DA19AD}">
   <dimension ref="A1:S11"/>
   <sheetViews>
@@ -8852,7 +9562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A01E08-B95D-46D1-B175-A8B7101FBA65}">
   <dimension ref="A1:T11"/>
   <sheetViews>
@@ -9581,664 +10291,664 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82" style="24" customWidth="1"/>
-    <col min="2" max="2" width="17" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="64.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="82" style="19" customWidth="1"/>
+    <col min="2" max="2" width="17" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="64.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="18" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="D2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="20">
         <v>400</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="15" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="20">
         <v>400</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="15" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="20">
         <v>400</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="15" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="20" t="s">
+      <c r="D5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="20">
         <v>400</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="15" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="20" t="s">
+      <c r="D6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="20">
         <v>400</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="15" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="20">
         <v>400</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="15" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="20" t="s">
+      <c r="D8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="20">
         <v>400</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="15" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="D9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="20">
         <v>400</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="15" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="20">
         <v>400</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="15" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="20" t="s">
+      <c r="D11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="20">
         <v>400</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="15" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="20" t="s">
+      <c r="D12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="20">
         <v>400</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="15" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="20" t="s">
+      <c r="D13" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="20">
         <v>400</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="15" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="20" t="s">
+      <c r="D14" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="20">
         <v>400</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="15" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="20" t="s">
+      <c r="D15" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="20">
         <v>400</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="15" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="20" t="s">
+      <c r="D16" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="20">
         <v>400</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="15" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="20" t="s">
+      <c r="D17" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="20">
         <v>400</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="15" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="20" t="s">
+      <c r="D18" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="20">
         <v>400</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="15" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="20" t="s">
+      <c r="D19" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="20">
         <v>400</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="15" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="20" t="s">
+      <c r="D20" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="20">
         <v>400</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="15" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="20" t="s">
+      <c r="D21" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="20">
         <v>400</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="15" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="20" t="s">
+      <c r="D22" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="20">
         <v>400</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="15" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="20" t="s">
+      <c r="D23" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="20">
         <v>400</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="15" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="19" t="s">
         <v>326</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D24" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="20" t="s">
+      <c r="D24" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="20">
         <v>400</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="15" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D25" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="20" t="s">
+      <c r="D25" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="20">
         <v>400</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="15" t="s">
         <v>302</v>
       </c>
     </row>
@@ -10275,63 +10985,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>337</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="5" t="s">
         <v>128</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -10361,10 +11071,10 @@
       <c r="K2" s="3">
         <v>200</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="15" t="s">
         <v>198</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -10380,11 +11090,11 @@
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>344</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="5" t="s">
         <v>128</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -10414,10 +11124,10 @@
       <c r="K3" s="3">
         <v>200</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="15" t="s">
         <v>198</v>
       </c>
       <c r="N3" s="3" t="s">
@@ -10433,11 +11143,11 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>348</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="5" t="s">
         <v>128</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -10467,10 +11177,10 @@
       <c r="K4" s="3">
         <v>200</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="15" t="s">
         <v>198</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -10486,11 +11196,11 @@
         <v>339</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>350</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="5" t="s">
         <v>128</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -10520,10 +11230,10 @@
       <c r="K5" s="3">
         <v>200</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="N5" s="3" t="s">
@@ -10574,66 +11284,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>381</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="5" t="s">
         <v>128</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -10657,16 +11367,16 @@
       <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="15" t="s">
         <v>382</v>
       </c>
       <c r="K2" s="3">
         <v>200</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="15" t="s">
         <v>198</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -10685,11 +11395,11 @@
         <v>356</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>362</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="5" t="s">
         <v>128</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -10719,10 +11429,10 @@
       <c r="K3" s="3">
         <v>200</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="15" t="s">
         <v>198</v>
       </c>
       <c r="N3" s="3" t="s">
@@ -10741,11 +11451,11 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>366</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="5" t="s">
         <v>128</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -10775,10 +11485,10 @@
       <c r="K4" s="3">
         <v>200</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="15" t="s">
         <v>198</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -10797,11 +11507,11 @@
         <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>371</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="5" t="s">
         <v>128</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -10831,10 +11541,10 @@
       <c r="K5" s="3">
         <v>200</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="15" t="s">
         <v>198</v>
       </c>
       <c r="N5" s="3" t="s">
@@ -10853,11 +11563,11 @@
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>373</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="5" t="s">
         <v>128</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -10887,10 +11597,10 @@
       <c r="K6" s="3">
         <v>200</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="15" t="s">
         <v>24</v>
       </c>
       <c r="N6" s="3" t="s">
@@ -10909,11 +11619,11 @@
         <v>358</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>377</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="5" t="s">
         <v>128</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -10943,10 +11653,10 @@
       <c r="K7" s="3">
         <v>200</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="15" t="s">
         <v>198</v>
       </c>
       <c r="N7" s="3" t="s">
@@ -10975,7 +11685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C508530A-1E53-4546-8F24-1690E4F7A839}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -11002,66 +11712,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="2" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="5" t="s">
         <v>128</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -11091,7 +11801,7 @@
       <c r="K2" s="3">
         <v>200</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="15" t="s">
         <v>29</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -11114,10 +11824,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="5" t="s">
         <v>128</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -11147,7 +11857,7 @@
       <c r="K3" s="3">
         <v>200</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="15" t="s">
         <v>29</v>
       </c>
       <c r="M3" s="3" t="s">
@@ -11170,10 +11880,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="5" t="s">
         <v>128</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -11203,7 +11913,7 @@
       <c r="K4" s="3">
         <v>200</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M4" s="3" t="s">
@@ -11226,10 +11936,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="5" t="s">
         <v>128</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -11259,7 +11969,7 @@
       <c r="K5" s="3">
         <v>200</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="15" t="s">
         <v>36</v>
       </c>
       <c r="M5" s="3" t="s">
@@ -11281,11 +11991,11 @@
         <v>402</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="5" t="s">
         <v>128</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -11309,13 +12019,13 @@
       <c r="I6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="15" t="s">
         <v>382</v>
       </c>
       <c r="K6" s="3">
         <v>200</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="15" t="s">
         <v>383</v>
       </c>
       <c r="M6" s="3" t="s">
@@ -11330,10 +12040,10 @@
       <c r="P6" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="Q6" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="15" t="s">
         <v>383</v>
       </c>
     </row>
@@ -11373,66 +12083,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="2" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="5" t="s">
         <v>128</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -11462,7 +12172,7 @@
       <c r="K2" s="3">
         <v>200</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="15" t="s">
         <v>29</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -11485,10 +12195,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="5" t="s">
         <v>128</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -11541,10 +12251,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="5" t="s">
         <v>128</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -11597,10 +12307,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="5" t="s">
         <v>128</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -11624,7 +12334,7 @@
       <c r="I5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="15" t="s">
         <v>382</v>
       </c>
       <c r="K5" s="3">
@@ -11658,52 +12368,160 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F680C5-3302-4988-BCBC-40F5FF94CC6C}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529D27D4-51A0-42CE-AFF2-BD264525BF5B}">
+  <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="54.28515625" customWidth="1"/>
+    <col min="1" max="1" width="58.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="29" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="23" t="s">
         <v>122</v>
       </c>
+      <c r="H1" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>425</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="W1" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="X1" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y1" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="Z1" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="AA1" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="AB1" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="AC1" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="AD1" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="AE1" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="AF1" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="AG1" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="AH1" s="22" t="s">
+        <v>439</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="345" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>128</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -11712,8 +12530,8 @@
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>123</v>
+      <c r="E2" s="3" t="s">
+        <v>444</v>
       </c>
       <c r="F2" s="4">
         <v>200</v>
@@ -11721,64 +12539,408 @@
       <c r="G2" s="3" t="s">
         <v>121</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="3">
+        <v>200</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="O2" s="3">
+        <v>200</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="T2" s="27">
+        <v>120</v>
+      </c>
+      <c r="U2" s="27">
+        <v>0</v>
+      </c>
+      <c r="V2" s="6">
+        <v>1</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="360" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="F3" s="4">
+        <v>200</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="3">
+        <v>200</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="O3" s="3">
+        <v>200</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>2</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="T3" s="27">
+        <v>120</v>
+      </c>
+      <c r="U3" s="27">
+        <v>0</v>
+      </c>
+      <c r="V3" s="6">
+        <v>1</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>442</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62873B6-CE53-407F-9102-217CEA8E4B49}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3957FA3F-36A7-4E41-8464-418F05F0E1B0}">
+  <dimension ref="A1:AY3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" customWidth="1"/>
+    <col min="1" max="1" width="52" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="6" width="45.85546875" customWidth="1"/>
-    <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="63.5703125" customWidth="1"/>
+    <col min="15" max="15" width="47.42578125" customWidth="1"/>
+    <col min="16" max="16" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="29" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="23" t="s">
         <v>122</v>
       </c>
+      <c r="H1" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="T1" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="U1" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="V1" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="W1" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="X1" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y1" s="22" t="s">
+        <v>458</v>
+      </c>
+      <c r="Z1" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="AA1" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="AB1" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="AC1" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="AD1" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE1" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="AF1" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="AG1" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="AH1" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="AI1" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="AJ1" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="AK1" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="AL1" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="AM1" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="AN1" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="AO1" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="AP1" s="22" t="s">
+        <v>475</v>
+      </c>
+      <c r="AQ1" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="AR1" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="AS1" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="AT1" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="AU1" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="AV1" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="AW1" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="AX1" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="AY1" s="22" t="s">
+        <v>484</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="345" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>128</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -11787,17 +12949,301 @@
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="G2" s="4">
-        <v>200</v>
+      <c r="E2" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="F2" s="4">
+        <v>200</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="3">
+        <v>200</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="O2" s="3">
+        <v>200</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="V2" s="3">
+        <v>2</v>
+      </c>
+      <c r="W2" s="3">
+        <v>1</v>
+      </c>
+      <c r="X2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE2" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>209908</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ2" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="F3" s="4">
+        <v>200</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>121</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="3">
+        <v>200</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="O3" s="3">
+        <v>200</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="V3" s="3">
+        <v>2</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE3" s="29" t="s">
+        <v>502</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>209908</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ3" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -11807,72 +13253,64 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE410D00-CD99-4911-BAFD-98D2F3BC35BA}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08725580-9229-481D-BB91-8A6146101248}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="53.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="116.5703125" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="22" t="s">
+        <v>506</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>122</v>
+      <c r="E1" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>508</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="345" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>509</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>128</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>129</v>
+        <v>510</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="4">
-        <v>200</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>121</v>
+      <c r="E2" s="3">
+        <v>200</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>